--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayavignesh\Documents\UiPath\World Weather Online\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316C63E4-E0E9-4353-B743-8DEC211E4901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FD12BC-4696-4049-89F9-EDDD401547EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -624,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1974,7 +1974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
